--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apob-Lsr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apob-Lsr.xlsx
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9717573333333333</v>
+        <v>0.6235436666666666</v>
       </c>
       <c r="N2">
-        <v>2.915272</v>
+        <v>1.870631</v>
       </c>
       <c r="O2">
-        <v>0.4646501932860088</v>
+        <v>0.3577087286482158</v>
       </c>
       <c r="P2">
-        <v>0.4646501932860088</v>
+        <v>0.3577087286482157</v>
       </c>
       <c r="Q2">
-        <v>0.01410538161244444</v>
+        <v>0.009050944169555555</v>
       </c>
       <c r="R2">
-        <v>0.126948434512</v>
+        <v>0.081458497526</v>
       </c>
       <c r="S2">
-        <v>0.4646501932860088</v>
+        <v>0.3577087286482158</v>
       </c>
       <c r="T2">
-        <v>0.4646501932860088</v>
+        <v>0.3577087286482157</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>2.638666</v>
       </c>
       <c r="O3">
-        <v>0.4205633871958499</v>
+        <v>0.5045751194047746</v>
       </c>
       <c r="P3">
-        <v>0.4205633871958499</v>
+        <v>0.5045751194047745</v>
       </c>
       <c r="Q3">
         <v>0.01276703884844444</v>
@@ -632,10 +632,10 @@
         <v>0.114903349636</v>
       </c>
       <c r="S3">
-        <v>0.4205633871958499</v>
+        <v>0.5045751194047746</v>
       </c>
       <c r="T3">
-        <v>0.4205633871958499</v>
+        <v>0.5045751194047745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,13 +679,13 @@
         <v>0.2400613333333333</v>
       </c>
       <c r="N4">
-        <v>0.720184</v>
+        <v>0.7201839999999999</v>
       </c>
       <c r="O4">
-        <v>0.1147864195181414</v>
+        <v>0.1377161519470097</v>
       </c>
       <c r="P4">
-        <v>0.1147864195181414</v>
+        <v>0.1377161519470096</v>
       </c>
       <c r="Q4">
         <v>0.003484570273777778</v>
@@ -694,10 +694,10 @@
         <v>0.031361132464</v>
       </c>
       <c r="S4">
-        <v>0.1147864195181414</v>
+        <v>0.1377161519470097</v>
       </c>
       <c r="T4">
-        <v>0.1147864195181414</v>
+        <v>0.1377161519470096</v>
       </c>
     </row>
   </sheetData>
